--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bodmadha\eclipse-workspace\RestAssuredFrameworkPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0409D8E8-DEA6-42C3-BEFC-04D2150D6BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907ECB9E-0F30-49EE-95A6-1E7D0D1F1166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,7 +390,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
